--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1949.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1949.xlsx
@@ -354,10 +354,10 @@
         <v>1.482172720475724</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.528160096303955</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1949.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1949.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8793894903049324</v>
+        <v>0.2450031936168671</v>
       </c>
       <c r="B1">
-        <v>1.482172720475724</v>
+        <v>0.3070769608020782</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>0.4467190504074097</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>2.051134347915649</v>
       </c>
       <c r="E1">
-        <v>1.528160096303955</v>
+        <v>5.570147037506104</v>
       </c>
     </row>
   </sheetData>
